--- a/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
+++ b/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
@@ -451,267 +451,357 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6126</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>240001</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>华宝宝康消费品混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>74.57</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.34</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5605</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>001495</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>东方新价值混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>34.53</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.42</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>240009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝先进成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002162</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方新价值混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>34.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001118</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝事件驱动混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002152</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004166</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>24.90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007686</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>24.90</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005169</t>
+          <t>121005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰保兴策略精选灵活配置混合A</t>
+          <t>国投瑞银创新动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.68</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9867</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -790,25 +900,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005170</t>
+          <t>240009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰保兴策略精选灵活配置混合C</t>
+          <t>华宝先进成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.68</t>
+          <t>17.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8901</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004166</t>
+          <t>009989</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方价值挖掘灵活配置混合A</t>
+          <t>华宝研究精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.84</t>
+          <t>22.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8702</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007686</t>
+          <t>001218</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方价值挖掘灵活配置混合C</t>
+          <t>国投瑞银精选收益灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.84</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5033</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>121006</t>
+          <t>161219</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银稳健增长混合</t>
+          <t>国投瑞银新兴产业混合(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>74.70</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>73.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4769</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>121005</t>
+          <t>010335</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银创新动力混合</t>
+          <t>华宝竞争优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>42.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4621</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161219</t>
+          <t>010423</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
+          <t>国投瑞银价值成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>73.49</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4220</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006385</t>
+          <t>121006</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰保兴研究智选灵活配置混合A</t>
+          <t>国投瑞银稳健增长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.54</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006386</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰保兴研究智选灵活配置混合C</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>84.54</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>240009</t>
+          <t>006385</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华宝先进成长混合</t>
+          <t>华泰保兴研究智选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>82.08</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009989</t>
+          <t>001495</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华宝研究精选混合</t>
+          <t>东方新价值混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>004166</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>东方价值挖掘灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006557</t>
+          <t>002628</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海富通研究精选混合A</t>
+          <t>招商安博灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006556</t>
+          <t>005522</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海富通研究精选混合C</t>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010335</t>
+          <t>002162</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华宝竞争优势混合</t>
+          <t>东方新价值混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>42.87</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010423</t>
+          <t>010424</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合A</t>
+          <t>国投瑞银价值成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>74.94</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>4.85</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010424</t>
+          <t>005169</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合C</t>
+          <t>华泰保兴策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001218</t>
+          <t>005170</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
+          <t>华泰保兴策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001495</t>
+          <t>002629</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东方新价值混合A</t>
+          <t>招商安博灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25.16</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002162</t>
+          <t>006386</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东方新价值混合C</t>
+          <t>华泰保兴研究智选灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25.16</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002628</t>
+          <t>007686</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>招商安博灵活配置混合A</t>
+          <t>东方价值挖掘灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>50.15</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002629</t>
+          <t>006557</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>招商安博灵活配置混合C</t>
+          <t>海富通研究精选混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>50.15</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005522</t>
+          <t>006556</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+          <t>海富通研究精选混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23.39</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
+++ b/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9329</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8260</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4761</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4497</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3024</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
+++ b/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2588,4 +2589,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7494</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6402</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4804</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3777</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
+++ b/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3557,4 +3558,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
+++ b/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3566,7 +3567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3577,17 +3578,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3597,14 +3618,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.58</v>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8793</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3613,14 +3656,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.05</v>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3629,14 +3694,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.02</v>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3645,13 +3732,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2928</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
+++ b/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4117,7 +4118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4128,17 +4129,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4148,14 +4169,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.67</v>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4763</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4164,14 +4207,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.58</v>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4180,14 +4245,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.05</v>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4196,14 +4283,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.02</v>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4212,13 +4321,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
+++ b/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4440,7 +4441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4451,17 +4452,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4471,14 +4492,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5749</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.71</v>
       </c>
     </row>
     <row r="3">
@@ -4487,14 +4530,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.67</v>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3576</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4503,14 +4568,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.58</v>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4519,14 +4606,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.05</v>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4535,14 +4644,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.02</v>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -4551,13 +4682,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
+++ b/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.71</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.67</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>5.58</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>6.05</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>6.02</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -600,6 +617,440 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3251</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2437</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013584</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商品质领航混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013583</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商品质领航混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +1732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1831,7 +2282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2799,7 +3250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3653,7 +4104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4583,7 +5034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
+++ b/数据整理/stocks/A股/深证主板/002968-新大正.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.3</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.71</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2.67</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>5.58</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>6.05</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>6.02</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,390 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6126</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5605</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +994,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016524</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014612</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016525</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013584</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商品质领航混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013583</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商品质领航混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1050,7 +1901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1410,7 +2261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1732,7 +2583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2282,7 +3133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3250,7 +4101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4104,7 +4955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5032,364 +5883,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>240009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝先进成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6140</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001118</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝事件驱动混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6126</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>240001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝宝康消费品混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.78</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>74.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5605</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001495</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方新价值混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>34.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1290</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004166</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>24.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1285</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002162</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方新价值混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>34.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002152</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0371</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007686</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>24.90</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>